--- a/formats/excel/Formats RAPSS ANO 15.xlsx
+++ b/formats/excel/Formats RAPSS ANO 15.xlsx
@@ -1,540 +1,876 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="23715" windowHeight="11055"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NOFINESS</t>
+  </si>
   <si>
     <t xml:space="preserve">N° FINESS e-PMSI </t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>NOFINESS_GEO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° FINESS de l'établissement (code géographique) </t>
   </si>
   <si>
+    <t>NOFORMAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° format </t>
   </si>
   <si>
+    <t>NOFORMHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° format VID-HOSP </t>
   </si>
   <si>
+    <t>MOISSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mois de sortie </t>
   </si>
   <si>
+    <t>ANSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Année de sortie  </t>
   </si>
   <si>
+    <t>CRSECU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « n° immatriculation assuré  » </t>
   </si>
   <si>
+    <t>CRDNAI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « date de  naissance » </t>
   </si>
   <si>
+    <t>CRSEXE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « sexe » </t>
   </si>
   <si>
+    <t>CRNODA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « n° d’identification administratif de séjour » </t>
   </si>
   <si>
+    <t>CRFUSHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour « fusion ANO-HOSP et HOSP-PMSI » </t>
   </si>
   <si>
+    <t>CRFUSPMSI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour « fusion ANO-PMSI et fichier PMSI » </t>
   </si>
   <si>
+    <t>CRDTENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « date de référence» (date d’entrée) </t>
   </si>
   <si>
+    <t>CRCDNAI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Cohérence date naissance » </t>
   </si>
   <si>
+    <t>CRCSEXE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Cohérence sexe » </t>
   </si>
   <si>
+    <t>NOANON</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° anonyme </t>
   </si>
   <si>
+    <t>NOSEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° de séjour </t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° séquentiel de séjour HAD/Numéro séquentiel d'entrée </t>
   </si>
   <si>
+    <t>DTENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date d'entrée </t>
   </si>
   <si>
+    <t>DTSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date de sortie </t>
   </si>
   <si>
+    <t>CRCODEGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code grand régime » </t>
   </si>
   <si>
+    <t>CRCDGESTION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code gestion » </t>
   </si>
   <si>
+    <t>CREXTICM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
   </si>
   <si>
+    <t>CRPRFOJO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
   </si>
   <si>
+    <t>CRNATASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « nature d’assurance » </t>
   </si>
   <si>
+    <t>CRTYPECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
+  </si>
+  <si>
+    <t>CRFACTAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « séjour facturable à l’assurance maladie » </t>
   </si>
   <si>
+    <t>CRMOTNOFACT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
   </si>
   <si>
+    <t>CRTOP18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « facturation du 18 euro » </t>
   </si>
   <si>
+    <t>CRNBEVEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « nombre de venues de la facture » </t>
   </si>
   <si>
+    <t>CRTICMOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
   </si>
   <si>
+    <t>CRFORJOU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
   </si>
   <si>
+    <t>CRFACTOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
+  </si>
+  <si>
+    <t>CRMAJPAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
   </si>
   <si>
+    <t>CRMTBASE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant base remboursement » </t>
   </si>
   <si>
+    <t>CRTXRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « taux de remboursement » </t>
   </si>
   <si>
+    <t>CRPBCMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Patient bénéficiaire de la CMU » </t>
   </si>
   <si>
+    <t>Filler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filler </t>
   </si>
   <si>
+    <t>CRDTHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Identifiant anonyme d'hospitalisation » </t>
   </si>
   <si>
+    <t>CRRMBAMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
   </si>
   <si>
+    <t>CRPARTASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Code participation assuré » </t>
   </si>
   <si>
+    <t>CRNUMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « N° d’entrée » </t>
   </si>
   <si>
+    <t>CRRGNAISS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Rang de naissance » </t>
   </si>
   <si>
+    <t>CRRGBEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Rang du bénéficiaire » </t>
   </si>
   <si>
+    <t>CRCAISSGEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « N° caisse gestionnaire » </t>
   </si>
   <si>
+    <t>CRCENTRGEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « N° centre gestionnaire » </t>
   </si>
   <si>
+    <t>CRPECSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle "Confirmation de la prise en charge dans le cadre du dispositif des soins urgents"  </t>
+  </si>
+  <si>
+    <t>CRAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle " Numéro accident du travail ou date d’accident de droit commun" </t>
+  </si>
+  <si>
+    <t>CRCOMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle " N° d’organisme complémentaire" </t>
+  </si>
+  <si>
+    <t>CODEGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code grand régime </t>
   </si>
   <si>
+    <t>CDGESTION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code gestion </t>
   </si>
   <si>
+    <t>CDEXTICM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code justification d’exonération du ticket modérateur </t>
   </si>
   <si>
+    <t>CDPRFOJO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code de prise en charge du forfait journalier  </t>
   </si>
   <si>
+    <t>NATASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nature d'assurance </t>
   </si>
   <si>
+    <t>TYPECONT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type de contrat souscrit auprès d'un organisme complémentaire </t>
   </si>
   <si>
+    <t>FACTAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Séjour facturable à l’assurance maladie </t>
   </si>
   <si>
+    <t>MOTNOFACT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Motif de la non facturation à l'assurance maladie </t>
   </si>
   <si>
+    <t>FACT18E</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facturation du 18 euro </t>
   </si>
   <si>
+    <t>NBEVEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
   </si>
   <si>
+    <t>MTFORJOU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant à facturer au titre du forfait journalier  </t>
   </si>
   <si>
+    <t>MTFACTOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
+  </si>
+  <si>
+    <t>MTMALPAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant lié à la majoration au parcours de soins </t>
   </si>
   <si>
+    <t>MTBASERM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant base remboursement </t>
   </si>
   <si>
+    <t>TAUXRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taux de remboursement </t>
   </si>
   <si>
+    <t>PATCMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patient bénéficiaire de la CMU </t>
   </si>
   <si>
+    <t>Filler2</t>
+  </si>
+  <si>
+    <t>DTHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifiant anonyme d'hospitalisation </t>
   </si>
   <si>
+    <t>MTRMBAMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant total du séjour remboursable pour l'AMC </t>
   </si>
   <si>
+    <t>PARTASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code participation assuré  </t>
   </si>
   <si>
+    <t>IDHOSPI1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifiant de première hospitalisation </t>
   </si>
   <si>
+    <t>Filler3</t>
+  </si>
+  <si>
+    <t>RGNAISS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rang de naissance  </t>
   </si>
   <si>
+    <t>RGBEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rang du bénéficiaire  </t>
   </si>
   <si>
+    <t>CAISSGEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° caisse gestionnaire </t>
   </si>
   <si>
+    <t>CENTRGEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° centre gestionnaire  </t>
   </si>
   <si>
+    <t>PECSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation de la prise en charge dans le cadre du dispositif des soins urgents  </t>
+  </si>
+  <si>
+    <t>NUMAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numéro accident du travail ou date d’accident de droit commun </t>
   </si>
   <si>
+    <t>NUMCOMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° d’organisme complémentaire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle "Confirmation de la prise en charge dans le cadre du dispositif des soins urgents"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle " Numéro accident du travail ou date d’accident de droit commun" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle " N° d’organisme complémentaire" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmation de la prise en charge dans le cadre du dispositif des soins urgents  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>NOFINESS</t>
-  </si>
-  <si>
-    <t>NOFINESS_GEO</t>
-  </si>
-  <si>
-    <t>NOFORMAT</t>
-  </si>
-  <si>
-    <t>NOFORMHOSP</t>
-  </si>
-  <si>
-    <t>MOISSOR</t>
-  </si>
-  <si>
-    <t>ANSOR</t>
-  </si>
-  <si>
-    <t>CRSECU</t>
-  </si>
-  <si>
-    <t>CRDNAI</t>
-  </si>
-  <si>
-    <t>CRSEXE</t>
-  </si>
-  <si>
-    <t>CRNODA</t>
-  </si>
-  <si>
-    <t>CRFUSHOSP</t>
-  </si>
-  <si>
-    <t>CRFUSPMSI</t>
-  </si>
-  <si>
-    <t>CRDTENT</t>
-  </si>
-  <si>
-    <t>CRCDNAI</t>
-  </si>
-  <si>
-    <t>CRCSEXE</t>
-  </si>
-  <si>
-    <t>NOANON</t>
-  </si>
-  <si>
-    <t>NOSEJ</t>
-  </si>
-  <si>
-    <t>NOSEJHAD</t>
-  </si>
-  <si>
-    <t>DTENT</t>
-  </si>
-  <si>
-    <t>DTSOR</t>
-  </si>
-  <si>
-    <t>CRCODEGR</t>
-  </si>
-  <si>
-    <t>CRCDGESTION</t>
-  </si>
-  <si>
-    <t>CREXTICM</t>
-  </si>
-  <si>
-    <t>CRPRFOJO</t>
-  </si>
-  <si>
-    <t>CRNATASS</t>
-  </si>
-  <si>
-    <t>CRTYPECO</t>
-  </si>
-  <si>
-    <t>CRFACTAM</t>
-  </si>
-  <si>
-    <t>CRMOTNOFACT</t>
-  </si>
-  <si>
-    <t>CRTOP18</t>
-  </si>
-  <si>
-    <t>CRNBEVEN</t>
-  </si>
-  <si>
-    <t>CRTICMOD</t>
-  </si>
-  <si>
-    <t>CRFORJOU</t>
-  </si>
-  <si>
-    <t>CRFACTOT</t>
-  </si>
-  <si>
-    <t>CRMAJPAR</t>
-  </si>
-  <si>
-    <t>CRMTBASE</t>
-  </si>
-  <si>
-    <t>CRTXRM</t>
-  </si>
-  <si>
-    <t>CRPBCMU</t>
-  </si>
-  <si>
-    <t>Filler</t>
-  </si>
-  <si>
-    <t>CRDTHOSP</t>
-  </si>
-  <si>
-    <t>CRRMBAMC</t>
-  </si>
-  <si>
-    <t>CRPARTASS</t>
-  </si>
-  <si>
-    <t>CRNUMENT</t>
-  </si>
-  <si>
-    <t>CRRGNAISS</t>
-  </si>
-  <si>
-    <t>CRRGBEN</t>
-  </si>
-  <si>
-    <t>CRCAISSGEST</t>
-  </si>
-  <si>
-    <t>CRCENTRGEST</t>
-  </si>
-  <si>
-    <t>CRPECSU</t>
-  </si>
-  <si>
-    <t>CRAT</t>
-  </si>
-  <si>
-    <t>CRCOMP</t>
-  </si>
-  <si>
-    <t>CODEGR</t>
-  </si>
-  <si>
-    <t>CDGESTION</t>
-  </si>
-  <si>
-    <t>CDEXTICM</t>
-  </si>
-  <si>
-    <t>CDPRFOJO</t>
-  </si>
-  <si>
-    <t>NATASS</t>
-  </si>
-  <si>
-    <t>TYPECONT</t>
-  </si>
-  <si>
-    <t>FACTAM</t>
-  </si>
-  <si>
-    <t>MOTNOFACT</t>
-  </si>
-  <si>
-    <t>FACT18E</t>
-  </si>
-  <si>
-    <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
-  </si>
-  <si>
-    <t>MTFORJOU</t>
-  </si>
-  <si>
-    <t>MTFACTOT</t>
-  </si>
-  <si>
-    <t>MTMALPAR</t>
-  </si>
-  <si>
-    <t>MTBASERM</t>
-  </si>
-  <si>
-    <t>TAUXRM</t>
-  </si>
-  <si>
-    <t>PATCMU</t>
-  </si>
-  <si>
-    <t>Filler2</t>
-  </si>
-  <si>
-    <t>DTHOSP</t>
-  </si>
-  <si>
-    <t>MTRMBAMC</t>
-  </si>
-  <si>
-    <t>PARTASS</t>
-  </si>
-  <si>
-    <t>IDHOSPI1</t>
-  </si>
-  <si>
-    <t>Filler3</t>
-  </si>
-  <si>
-    <t>RGNAISS</t>
-  </si>
-  <si>
-    <t>RGBEN</t>
-  </si>
-  <si>
-    <t>CAISSGEST</t>
-  </si>
-  <si>
-    <t>CENTRGEST</t>
-  </si>
-  <si>
-    <t>PECSU</t>
-  </si>
-  <si>
-    <t>NUMAT</t>
-  </si>
-  <si>
-    <t>NUMCOMP</t>
-  </si>
-  <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -542,23 +878,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -567,7 +1187,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -848,45 +1468,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7133333333333" customWidth="1"/>
+    <col min="2" max="2" width="105.426666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.85333333333333" customWidth="1"/>
+    <col min="5" max="5" width="4.14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -898,15 +1521,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -918,15 +1541,15 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -938,15 +1561,15 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -958,15 +1581,15 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -978,15 +1601,15 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -998,15 +1621,15 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1018,15 +1641,15 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1038,15 +1661,15 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1058,15 +1681,15 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1078,15 +1701,15 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1098,15 +1721,15 @@
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1118,15 +1741,15 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1138,15 +1761,15 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1158,15 +1781,15 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1178,15 +1801,15 @@
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -1198,15 +1821,15 @@
         <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1218,15 +1841,15 @@
         <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1238,15 +1861,15 @@
         <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1258,15 +1881,15 @@
         <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -1278,15 +1901,15 @@
         <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1298,15 +1921,15 @@
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1318,15 +1941,15 @@
         <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1338,15 +1961,15 @@
         <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1358,15 +1981,15 @@
         <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1378,15 +2001,15 @@
         <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1398,15 +2021,15 @@
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1418,15 +2041,15 @@
         <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1438,15 +2061,15 @@
         <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1458,15 +2081,15 @@
         <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1478,15 +2101,15 @@
         <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1498,15 +2121,15 @@
         <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1518,15 +2141,15 @@
         <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1538,15 +2161,15 @@
         <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1558,15 +2181,15 @@
         <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1578,15 +2201,15 @@
         <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1598,15 +2221,15 @@
         <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1618,15 +2241,15 @@
         <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1638,15 +2261,15 @@
         <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1658,15 +2281,15 @@
         <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1678,15 +2301,15 @@
         <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1698,15 +2321,15 @@
         <v>105</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1718,15 +2341,15 @@
         <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1738,15 +2361,15 @@
         <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1758,15 +2381,15 @@
         <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1778,15 +2401,15 @@
         <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1798,15 +2421,15 @@
         <v>110</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1818,15 +2441,15 @@
         <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1838,15 +2461,15 @@
         <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1858,15 +2481,15 @@
         <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1878,15 +2501,15 @@
         <v>115</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1898,15 +2521,15 @@
         <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1918,15 +2541,15 @@
         <v>118</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1938,15 +2561,15 @@
         <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1958,15 +2581,15 @@
         <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1978,15 +2601,15 @@
         <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1998,15 +2621,15 @@
         <v>124</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2018,15 +2641,15 @@
         <v>125</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2038,15 +2661,15 @@
         <v>126</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2058,15 +2681,15 @@
         <v>130</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -2078,15 +2701,15 @@
         <v>140</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -2098,15 +2721,15 @@
         <v>150</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -2118,15 +2741,15 @@
         <v>160</v>
       </c>
       <c r="F63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -2138,15 +2761,15 @@
         <v>164</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -2158,15 +2781,15 @@
         <v>174</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -2178,15 +2801,15 @@
         <v>179</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2198,15 +2821,15 @@
         <v>180</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C68">
         <v>30</v>
@@ -2218,15 +2841,15 @@
         <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -2238,15 +2861,15 @@
         <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -2258,15 +2881,15 @@
         <v>228</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
         <v>147</v>
-      </c>
-      <c r="B71" t="s">
-        <v>62</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2278,15 +2901,15 @@
         <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C72">
         <v>6</v>
@@ -2298,15 +2921,15 @@
         <v>235</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -2318,15 +2941,15 @@
         <v>238</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2338,15 +2961,15 @@
         <v>239</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -2358,15 +2981,15 @@
         <v>242</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2378,15 +3001,15 @@
         <v>245</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -2398,15 +3021,15 @@
         <v>249</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2418,15 +3041,15 @@
         <v>250</v>
       </c>
       <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -2438,15 +3061,15 @@
         <v>259</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -2458,34 +3081,43 @@
         <v>269</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/formats/excel/Formats RAPSS ANO 15.xlsx
+++ b/formats/excel/Formats RAPSS ANO 15.xlsx
@@ -396,13 +396,13 @@
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
   </si>
   <si>
     <t>MTFORJOU</t>
@@ -518,10 +518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -532,32 +532,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,11 +556,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,45 +640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,23 +654,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,6 +668,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -682,6 +682,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -691,49 +817,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,115 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,45 +876,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -951,8 +912,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,153 +971,153 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1472,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2661,7 +2661,7 @@
         <v>126</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2681,15 +2681,15 @@
         <v>130</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
         <v>127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>128</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -2701,7 +2701,7 @@
         <v>140</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2721,7 +2721,7 @@
         <v>150</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2741,7 +2741,7 @@
         <v>160</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2761,7 +2761,7 @@
         <v>164</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2781,7 +2781,7 @@
         <v>174</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2801,7 +2801,7 @@
         <v>179</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2881,7 +2881,7 @@
         <v>228</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:6">
